--- a/data/cong_polarization.xlsx
+++ b/data/cong_polarization.xlsx
@@ -3784,7 +3784,7 @@
         <v>-0.06585294117647059</v>
       </c>
       <c r="J49">
-        <v>0.06529411764705882</v>
+        <v>0.06529638009049774</v>
       </c>
       <c r="K49">
         <v>-0.3234674796747968</v>
@@ -3796,13 +3796,13 @@
         <v>0.2609435897435897</v>
       </c>
       <c r="N49">
-        <v>-0.1499589743589743</v>
+        <v>-0.1499538461538462</v>
       </c>
       <c r="O49">
         <v>0.2534601226993865</v>
       </c>
       <c r="P49">
-        <v>-0.2054539877300613</v>
+        <v>-0.2054478527607362</v>
       </c>
       <c r="Q49">
         <v>0.2990625</v>
@@ -3836,7 +3836,7 @@
         <v>1975</v>
       </c>
       <c r="D50">
-        <v>0.580234693877551</v>
+        <v>0.5802414965986394</v>
       </c>
       <c r="E50">
         <v>0.3560090702947846</v>
@@ -3851,10 +3851,10 @@
         <v>0.4399092970521542</v>
       </c>
       <c r="I50">
-        <v>-0.1218775510204082</v>
+        <v>-0.121875283446712</v>
       </c>
       <c r="J50">
-        <v>0.03622675736961451</v>
+        <v>0.03622902494331066</v>
       </c>
       <c r="K50">
         <v>-0.3152891156462585</v>
@@ -3863,16 +3863,16 @@
         <v>0.1418809523809524</v>
       </c>
       <c r="M50">
-        <v>0.2649455782312925</v>
+        <v>0.2649523809523809</v>
       </c>
       <c r="N50">
-        <v>-0.1750816326530612</v>
+        <v>-0.1750748299319728</v>
       </c>
       <c r="O50">
-        <v>0.251781512605042</v>
+        <v>0.2517899159663866</v>
       </c>
       <c r="P50">
-        <v>-0.2344873949579832</v>
+        <v>-0.2344789915966387</v>
       </c>
       <c r="Q50">
         <v>0.3208928571428571</v>
@@ -3906,7 +3906,7 @@
         <v>1977</v>
       </c>
       <c r="D51">
-        <v>0.5729795918367346</v>
+        <v>0.5729863945578231</v>
       </c>
       <c r="E51">
         <v>0.3650793650793651</v>
@@ -3921,10 +3921,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="I51">
-        <v>-0.1149047619047619</v>
+        <v>-0.1149024943310658</v>
       </c>
       <c r="J51">
-        <v>0.01962585034013605</v>
+        <v>0.0196281179138322</v>
       </c>
       <c r="K51">
         <v>-0.3058979591836735</v>
@@ -3933,16 +3933,16 @@
         <v>0.1187312925170068</v>
       </c>
       <c r="M51">
-        <v>0.2670816326530612</v>
+        <v>0.2670884353741497</v>
       </c>
       <c r="N51">
-        <v>-0.1785850340136055</v>
+        <v>-0.178578231292517</v>
       </c>
       <c r="O51">
-        <v>0.2572857142857143</v>
+        <v>0.2572941176470588</v>
       </c>
       <c r="P51">
-        <v>-0.2435126050420168</v>
+        <v>-0.2435042016806723</v>
       </c>
       <c r="Q51">
         <v>0.3087142857142857</v>
@@ -3976,7 +3976,7 @@
         <v>1979</v>
       </c>
       <c r="D52">
-        <v>0.5960372228730576</v>
+        <v>0.5960434340531818</v>
       </c>
       <c r="E52">
         <v>0.3461538461538461</v>
@@ -3991,10 +3991,10 @@
         <v>0.4230769230769231</v>
       </c>
       <c r="I52">
-        <v>-0.08420814479638009</v>
+        <v>-0.08420588235294117</v>
       </c>
       <c r="J52">
-        <v>0.004699095022624433</v>
+        <v>0.004701357466063347</v>
       </c>
       <c r="K52">
         <v>-0.3013167259786477</v>
@@ -4003,16 +4003,16 @@
         <v>0.1096975088967971</v>
       </c>
       <c r="M52">
-        <v>0.2947204968944099</v>
+        <v>0.2947267080745342</v>
       </c>
       <c r="N52">
-        <v>-0.1785590062111801</v>
+        <v>-0.1785527950310559</v>
       </c>
       <c r="O52">
-        <v>0.284015503875969</v>
+        <v>0.2840232558139535</v>
       </c>
       <c r="P52">
-        <v>-0.2381007751937985</v>
+        <v>-0.238093023255814</v>
       </c>
       <c r="Q52">
         <v>0.337875</v>
@@ -4046,7 +4046,7 @@
         <v>1981</v>
       </c>
       <c r="D53">
-        <v>0.606865095430885</v>
+        <v>0.6068701974717012</v>
       </c>
       <c r="E53">
         <v>0.3423423423423423</v>
@@ -4061,25 +4061,25 @@
         <v>0.4966139954853273</v>
       </c>
       <c r="I53">
-        <v>-0.03296846846846847</v>
+        <v>-0.03296621621621622</v>
       </c>
       <c r="J53">
-        <v>-0.03660135135135135</v>
+        <v>-0.03660585585585586</v>
       </c>
       <c r="K53">
         <v>-0.3004008097165992</v>
       </c>
       <c r="L53">
-        <v>0.09217004048582995</v>
+        <v>0.09215789473684211</v>
       </c>
       <c r="M53">
-        <v>0.3064642857142857</v>
+        <v>0.306469387755102</v>
       </c>
       <c r="N53">
-        <v>-0.1987755102040816</v>
+        <v>-0.1987704081632653</v>
       </c>
       <c r="O53">
-        <v>0.2924166666666667</v>
+        <v>0.2924230769230769</v>
       </c>
       <c r="P53">
         <v>-0.2539102564102564</v>
@@ -4088,13 +4088,13 @@
         <v>0.36125</v>
       </c>
       <c r="R53">
-        <v>0.01625</v>
+        <v>0.016275</v>
       </c>
       <c r="S53">
         <v>-0.3647514450867052</v>
       </c>
       <c r="T53">
-        <v>-0.1066242774566474</v>
+        <v>-0.1066416184971098</v>
       </c>
       <c r="U53">
         <v>-0.1499594594594595</v>
@@ -4116,7 +4116,7 @@
         <v>1983</v>
       </c>
       <c r="D54">
-        <v>0.6273989080662206</v>
+        <v>0.6274048960901726</v>
       </c>
       <c r="E54">
         <v>0.316628701594533</v>
@@ -4131,25 +4131,25 @@
         <v>0.4305239179954442</v>
       </c>
       <c r="I54">
-        <v>-0.06312528473804101</v>
+        <v>-0.06312300683371298</v>
       </c>
       <c r="J54">
-        <v>-0.03479271070615034</v>
+        <v>-0.03479726651480638</v>
       </c>
       <c r="K54">
         <v>-0.3017941176470588</v>
       </c>
       <c r="L54">
-        <v>0.07077573529411765</v>
+        <v>0.07076470588235294</v>
       </c>
       <c r="M54">
-        <v>0.3256047904191617</v>
+        <v>0.3256107784431138</v>
       </c>
       <c r="N54">
-        <v>-0.2067365269461078</v>
+        <v>-0.2067305389221557</v>
       </c>
       <c r="O54">
-        <v>0.3144274809160305</v>
+        <v>0.3144351145038168</v>
       </c>
       <c r="P54">
         <v>-0.2614580152671755</v>
@@ -4158,13 +4158,13 @@
         <v>0.3662777777777778</v>
       </c>
       <c r="R54">
-        <v>-0.007611111111111112</v>
+        <v>-0.007583333333333333</v>
       </c>
       <c r="S54">
         <v>-0.3663155080213904</v>
       </c>
       <c r="T54">
-        <v>-0.1262192513368984</v>
+        <v>-0.1262352941176471</v>
       </c>
       <c r="U54">
         <v>-0.1598470588235294</v>
@@ -4186,7 +4186,7 @@
         <v>1985</v>
       </c>
       <c r="D55">
-        <v>0.6432567452003249</v>
+        <v>0.6432622397058194</v>
       </c>
       <c r="E55">
         <v>0.3052391799544419</v>
@@ -4201,25 +4201,25 @@
         <v>0.0979498861047836</v>
       </c>
       <c r="I55">
-        <v>-0.04285649202733485</v>
+        <v>-0.04285421412300684</v>
       </c>
       <c r="J55">
-        <v>-0.04013895216400911</v>
+        <v>-0.04014350797266514</v>
       </c>
       <c r="K55">
         <v>-0.3095369649805447</v>
       </c>
       <c r="L55">
-        <v>0.08184824902723735</v>
+        <v>0.08183657587548639</v>
       </c>
       <c r="M55">
-        <v>0.3337197802197802</v>
+        <v>0.3337252747252747</v>
       </c>
       <c r="N55">
-        <v>-0.2123956043956044</v>
+        <v>-0.2123901098901099</v>
       </c>
       <c r="O55">
-        <v>0.3170942028985507</v>
+        <v>0.3171014492753623</v>
       </c>
       <c r="P55">
         <v>-0.278072463768116</v>
@@ -4228,13 +4228,13 @@
         <v>0.3858636363636364</v>
       </c>
       <c r="R55">
-        <v>-0.006409090909090908</v>
+        <v>-0.006386363636363634</v>
       </c>
       <c r="S55">
         <v>-0.3625195530726257</v>
       </c>
       <c r="T55">
-        <v>-0.1081396648044693</v>
+        <v>-0.1081564245810056</v>
       </c>
       <c r="U55">
         <v>-0.187948717948718</v>
@@ -4256,7 +4256,7 @@
         <v>1987</v>
       </c>
       <c r="D56">
-        <v>0.6446654868011429</v>
+        <v>0.6446710733933216</v>
       </c>
       <c r="E56">
         <v>0.3129251700680272</v>
@@ -4271,40 +4271,40 @@
         <v>0.09750566893424037</v>
       </c>
       <c r="I56">
-        <v>-0.04766893424036282</v>
+        <v>-0.04766666666666667</v>
       </c>
       <c r="J56">
-        <v>-0.04426530612244898</v>
+        <v>-0.04425396825396825</v>
       </c>
       <c r="K56">
         <v>-0.3093358778625954</v>
       </c>
       <c r="L56">
-        <v>0.08472519083969465</v>
+        <v>0.0847175572519084</v>
       </c>
       <c r="M56">
-        <v>0.3353296089385475</v>
+        <v>0.3353351955307263</v>
       </c>
       <c r="N56">
-        <v>-0.2330670391061453</v>
+        <v>-0.2330279329608939</v>
       </c>
       <c r="O56">
         <v>0.3138832116788321</v>
       </c>
       <c r="P56">
-        <v>-0.2954452554744526</v>
+        <v>-0.2954233576642336</v>
       </c>
       <c r="Q56">
-        <v>0.4052857142857143</v>
+        <v>0.4053095238095238</v>
       </c>
       <c r="R56">
-        <v>-0.02959523809523809</v>
+        <v>-0.0295</v>
       </c>
       <c r="S56">
         <v>-0.3597197802197802</v>
       </c>
       <c r="T56">
-        <v>-0.09382417582417582</v>
+        <v>-0.09383516483516484</v>
       </c>
       <c r="U56">
         <v>-0.1947125</v>
@@ -4326,7 +4326,7 @@
         <v>1989</v>
       </c>
       <c r="D57">
-        <v>0.6526937106918239</v>
+        <v>0.6526992662473794</v>
       </c>
       <c r="E57">
         <v>0.3191011235955056</v>
@@ -4341,40 +4341,40 @@
         <v>0.05842696629213483</v>
       </c>
       <c r="I57">
-        <v>-0.04904943820224719</v>
+        <v>-0.04904719101123595</v>
       </c>
       <c r="J57">
-        <v>-0.05215730337078651</v>
+        <v>-0.05214606741573034</v>
       </c>
       <c r="K57">
         <v>-0.3130603773584906</v>
       </c>
       <c r="L57">
-        <v>0.08088301886792452</v>
+        <v>0.08087547169811321</v>
       </c>
       <c r="M57">
-        <v>0.3396333333333333</v>
+        <v>0.3396388888888889</v>
       </c>
       <c r="N57">
-        <v>-0.2480222222222222</v>
+        <v>-0.2479833333333333</v>
       </c>
       <c r="O57">
         <v>0.3220735294117647</v>
       </c>
       <c r="P57">
-        <v>-0.3133161764705882</v>
+        <v>-0.3132941176470588</v>
       </c>
       <c r="Q57">
-        <v>0.3939090909090909</v>
+        <v>0.3939318181818182</v>
       </c>
       <c r="R57">
-        <v>-0.04620454545454545</v>
+        <v>-0.04611363636363636</v>
       </c>
       <c r="S57">
         <v>-0.3598532608695652</v>
       </c>
       <c r="T57">
-        <v>-0.09992391304347827</v>
+        <v>-0.09993478260869565</v>
       </c>
       <c r="U57">
         <v>-0.2067654320987654</v>
@@ -4396,7 +4396,7 @@
         <v>1991</v>
       </c>
       <c r="D58">
-        <v>0.6589642701525055</v>
+        <v>0.6589701525054467</v>
       </c>
       <c r="E58">
         <v>0.3151927437641723</v>
@@ -4414,37 +4414,37 @@
         <v>-0.06071201814058957</v>
       </c>
       <c r="J58">
-        <v>-0.04008616780045351</v>
+        <v>-0.04006575963718821</v>
       </c>
       <c r="K58">
         <v>-0.3142407407407408</v>
       </c>
       <c r="L58">
-        <v>0.08028888888888888</v>
+        <v>0.08027777777777778</v>
       </c>
       <c r="M58">
-        <v>0.3447235294117647</v>
+        <v>0.3447294117647059</v>
       </c>
       <c r="N58">
-        <v>-0.2291470588235294</v>
+        <v>-0.2291058823529412</v>
       </c>
       <c r="O58">
         <v>0.3229763779527559</v>
       </c>
       <c r="P58">
-        <v>-0.2926614173228346</v>
+        <v>-0.2926377952755905</v>
       </c>
       <c r="Q58">
-        <v>0.408953488372093</v>
+        <v>0.4089767441860465</v>
       </c>
       <c r="R58">
-        <v>-0.04155813953488372</v>
+        <v>-0.04146511627906976</v>
       </c>
       <c r="S58">
         <v>-0.3590628272251309</v>
       </c>
       <c r="T58">
-        <v>-0.08282722513089005</v>
+        <v>-0.08284293193717278</v>
       </c>
       <c r="U58">
         <v>-0.205873417721519</v>
@@ -4466,7 +4466,7 @@
         <v>1993</v>
       </c>
       <c r="D59">
-        <v>0.7043030651340996</v>
+        <v>0.7043252873563218</v>
       </c>
       <c r="E59">
         <v>0.2760180995475113</v>
@@ -4481,40 +4481,40 @@
         <v>0.02494331065759637</v>
       </c>
       <c r="I59">
-        <v>-0.04694343891402715</v>
+        <v>-0.04693665158371041</v>
       </c>
       <c r="J59">
-        <v>-0.03384162895927602</v>
+        <v>-0.03379864253393665</v>
       </c>
       <c r="K59">
         <v>-0.3333141762452107</v>
       </c>
       <c r="L59">
-        <v>0.06971647509578544</v>
+        <v>0.06971264367816092</v>
       </c>
       <c r="M59">
-        <v>0.3709888888888889</v>
+        <v>0.3710111111111111</v>
       </c>
       <c r="N59">
-        <v>-0.1819611111111111</v>
+        <v>-0.1818777777777778</v>
       </c>
       <c r="O59">
-        <v>0.3509922480620155</v>
+        <v>0.3510077519379845</v>
       </c>
       <c r="P59">
-        <v>-0.2638294573643411</v>
+        <v>-0.2637364341085272</v>
       </c>
       <c r="Q59">
-        <v>0.4215686274509804</v>
+        <v>0.4216078431372549</v>
       </c>
       <c r="R59">
-        <v>0.02511764705882353</v>
+        <v>0.0251764705882353</v>
       </c>
       <c r="S59">
         <v>-0.3675414364640884</v>
       </c>
       <c r="T59">
-        <v>-0.07492265193370165</v>
+        <v>-0.07492817679558011</v>
       </c>
       <c r="U59">
         <v>-0.255875</v>
@@ -4536,7 +4536,7 @@
         <v>1995</v>
       </c>
       <c r="D60">
-        <v>0.7582165906127771</v>
+        <v>0.7582038787483703</v>
       </c>
       <c r="E60">
         <v>0.197752808988764</v>
@@ -4551,10 +4551,10 @@
         <v>0.01801801801801802</v>
       </c>
       <c r="I60">
-        <v>0.04029438202247191</v>
+        <v>0.04028539325842697</v>
       </c>
       <c r="J60">
-        <v>-0.03481797752808989</v>
+        <v>-0.03479550561797753</v>
       </c>
       <c r="K60">
         <v>-0.3614326923076923</v>
@@ -4563,34 +4563,34 @@
         <v>0.06137019230769231</v>
       </c>
       <c r="M60">
-        <v>0.3967838983050848</v>
+        <v>0.396771186440678</v>
       </c>
       <c r="N60">
-        <v>-0.1180423728813559</v>
+        <v>-0.118021186440678</v>
       </c>
       <c r="O60">
         <v>0.3747730061349693</v>
       </c>
       <c r="P60">
-        <v>-0.1902944785276074</v>
+        <v>-0.1901779141104294</v>
       </c>
       <c r="Q60">
-        <v>0.4459315068493151</v>
+        <v>0.4458904109589041</v>
       </c>
       <c r="R60">
-        <v>0.04328767123287671</v>
+        <v>0.0430958904109589</v>
       </c>
       <c r="S60">
         <v>-0.3951689189189189</v>
       </c>
       <c r="T60">
-        <v>-0.07048648648648649</v>
+        <v>-0.07049324324324324</v>
       </c>
       <c r="U60">
         <v>-0.2782166666666667</v>
       </c>
       <c r="V60">
-        <v>0.3866166666666667</v>
+        <v>0.3866333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -4606,7 +4606,7 @@
         <v>1997</v>
       </c>
       <c r="D61">
-        <v>0.7772755452095075</v>
+        <v>0.7772582291921915</v>
       </c>
       <c r="E61">
         <v>0.1554054054054054</v>
@@ -4621,46 +4621,46 @@
         <v>0.01805869074492099</v>
       </c>
       <c r="I61">
-        <v>0.02842792792792793</v>
+        <v>0.02841666666666667</v>
       </c>
       <c r="J61">
-        <v>-0.02212162162162162</v>
+        <v>-0.02209009009009009</v>
       </c>
       <c r="K61">
         <v>-0.3756132075471698</v>
       </c>
       <c r="L61">
-        <v>0.03608490566037736</v>
+        <v>0.03605188679245283</v>
       </c>
       <c r="M61">
-        <v>0.4016623376623377</v>
+        <v>0.4016450216450216</v>
       </c>
       <c r="N61">
-        <v>-0.0739004329004329</v>
+        <v>-0.07383116883116883</v>
       </c>
       <c r="O61">
         <v>0.3818571428571428</v>
       </c>
       <c r="P61">
-        <v>-0.1390909090909091</v>
+        <v>-0.1389155844155844</v>
       </c>
       <c r="Q61">
-        <v>0.4412727272727273</v>
+        <v>0.4412207792207792</v>
       </c>
       <c r="R61">
-        <v>0.05648051948051948</v>
+        <v>0.05633766233766234</v>
       </c>
       <c r="S61">
         <v>-0.39839375</v>
       </c>
       <c r="T61">
-        <v>-0.05718125</v>
+        <v>-0.05723125</v>
       </c>
       <c r="U61">
         <v>-0.3055192307692308</v>
       </c>
       <c r="V61">
-        <v>0.3230576923076923</v>
+        <v>0.3230769230769231</v>
       </c>
     </row>
     <row r="62">
@@ -4676,7 +4676,7 @@
         <v>1999</v>
       </c>
       <c r="D62">
-        <v>0.7770562128325509</v>
+        <v>0.7770337402190923</v>
       </c>
       <c r="E62">
         <v>0.1568181818181818</v>
@@ -4691,46 +4691,46 @@
         <v>0.01598173515981735</v>
       </c>
       <c r="I62">
-        <v>0.02628181818181818</v>
+        <v>0.02627272727272727</v>
       </c>
       <c r="J62">
-        <v>-0.007438636363636363</v>
+        <v>-0.0074</v>
       </c>
       <c r="K62">
-        <v>-0.372887323943662</v>
+        <v>-0.3728826291079812</v>
       </c>
       <c r="L62">
-        <v>0.04429577464788732</v>
+        <v>0.04427230046948356</v>
       </c>
       <c r="M62">
-        <v>0.4041688888888889</v>
+        <v>0.4041511111111111</v>
       </c>
       <c r="N62">
-        <v>-0.05710222222222222</v>
+        <v>-0.05702666666666666</v>
       </c>
       <c r="O62">
         <v>0.3842448979591837</v>
       </c>
       <c r="P62">
-        <v>-0.1237619047619048</v>
+        <v>-0.1235714285714286</v>
       </c>
       <c r="Q62">
-        <v>0.4417179487179487</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="R62">
-        <v>0.06852564102564103</v>
+        <v>0.06838461538461539</v>
       </c>
       <c r="S62">
-        <v>-0.3967592592592593</v>
+        <v>-0.3967530864197531</v>
       </c>
       <c r="T62">
-        <v>-0.04280864197530864</v>
+        <v>-0.04284567901234568</v>
       </c>
       <c r="U62">
         <v>-0.2970588235294118</v>
       </c>
       <c r="V62">
-        <v>0.3209803921568627</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="63">
@@ -4746,7 +4746,7 @@
         <v>2001</v>
       </c>
       <c r="D63">
-        <v>0.786634694212166</v>
+        <v>0.7866165764879489</v>
       </c>
       <c r="E63">
         <v>0.1463963963963964</v>
@@ -4761,46 +4761,46 @@
         <v>0.009049773755656109</v>
       </c>
       <c r="I63">
-        <v>0.02892342342342342</v>
+        <v>0.02892117117117117</v>
       </c>
       <c r="J63">
-        <v>0.004826576576576576</v>
+        <v>0.004925675675675675</v>
       </c>
       <c r="K63">
-        <v>-0.3768364485981309</v>
+        <v>-0.3768271028037383</v>
       </c>
       <c r="L63">
-        <v>0.03988785046728972</v>
+        <v>0.03987383177570093</v>
       </c>
       <c r="M63">
-        <v>0.4097982456140351</v>
+        <v>0.4097894736842105</v>
       </c>
       <c r="N63">
-        <v>-0.02865350877192982</v>
+        <v>-0.02846929824561404</v>
       </c>
       <c r="O63">
-        <v>0.3901095890410959</v>
+        <v>0.3901232876712329</v>
       </c>
       <c r="P63">
-        <v>-0.1044315068493151</v>
+        <v>-0.1041438356164384</v>
       </c>
       <c r="Q63">
-        <v>0.4448536585365854</v>
+        <v>0.4448048780487805</v>
       </c>
       <c r="R63">
         <v>0.1062682926829268</v>
       </c>
       <c r="S63">
-        <v>-0.3996441717791411</v>
+        <v>-0.3996319018404908</v>
       </c>
       <c r="T63">
-        <v>-0.04742944785276074</v>
+        <v>-0.04745398773006135</v>
       </c>
       <c r="U63">
         <v>-0.3039411764705882</v>
       </c>
       <c r="V63">
-        <v>0.3189607843137255</v>
+        <v>0.3189803921568627</v>
       </c>
     </row>
     <row r="64">
@@ -4816,7 +4816,7 @@
         <v>2003</v>
       </c>
       <c r="D64">
-        <v>0.7930350066600067</v>
+        <v>0.7930427072927073</v>
       </c>
       <c r="E64">
         <v>0.1340909090909091</v>
@@ -4831,37 +4831,37 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0.03976818181818182</v>
+        <v>0.03977954545454546</v>
       </c>
       <c r="J64">
-        <v>0.01650909090909091</v>
+        <v>0.01665227272727273</v>
       </c>
       <c r="K64">
-        <v>-0.3762211538461538</v>
+        <v>-0.3762115384615385</v>
       </c>
       <c r="L64">
         <v>0.04780769230769231</v>
       </c>
       <c r="M64">
-        <v>0.4168138528138528</v>
+        <v>0.4168311688311688</v>
       </c>
       <c r="N64">
-        <v>-0.009865800865800866</v>
+        <v>-0.009614718614718614</v>
       </c>
       <c r="O64">
-        <v>0.3989256756756757</v>
+        <v>0.3989391891891892</v>
       </c>
       <c r="P64">
-        <v>-0.08581081081081081</v>
+        <v>-0.08552027027027027</v>
       </c>
       <c r="Q64">
-        <v>0.448710843373494</v>
+        <v>0.4487349397590362</v>
       </c>
       <c r="R64">
-        <v>0.1255542168674699</v>
+        <v>0.1257349397590362</v>
       </c>
       <c r="S64">
-        <v>-0.4044805194805195</v>
+        <v>-0.4044675324675325</v>
       </c>
       <c r="T64">
         <v>-0.05011688311688312</v>
@@ -4886,7 +4886,7 @@
         <v>2005</v>
       </c>
       <c r="D65">
-        <v>0.8100879781993502</v>
+        <v>0.810077455193376</v>
       </c>
       <c r="E65">
         <v>0.1252847380410023</v>
@@ -4901,40 +4901,40 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0.04613895216400911</v>
+        <v>0.04614578587699317</v>
       </c>
       <c r="J65">
-        <v>0.01257858769931663</v>
+        <v>0.01275626423690205</v>
       </c>
       <c r="K65">
-        <v>-0.3871773399014778</v>
+        <v>-0.3871625615763547</v>
       </c>
       <c r="L65">
-        <v>0.03109852216748768</v>
+        <v>0.03110344827586207</v>
       </c>
       <c r="M65">
-        <v>0.4229106382978723</v>
+        <v>0.4229148936170213</v>
       </c>
       <c r="N65">
-        <v>-0.001659574468085106</v>
+        <v>-0.001353191489361702</v>
       </c>
       <c r="O65">
-        <v>0.3995202702702703</v>
+        <v>0.3995337837837838</v>
       </c>
       <c r="P65">
-        <v>-0.07723648648648648</v>
+        <v>-0.07692567567567568</v>
       </c>
       <c r="Q65">
-        <v>0.4627011494252873</v>
+        <v>0.4626896551724138</v>
       </c>
       <c r="R65">
-        <v>0.1269080459770115</v>
+        <v>0.1272068965517241</v>
       </c>
       <c r="S65">
-        <v>-0.4056624203821656</v>
+        <v>-0.4056433121019108</v>
       </c>
       <c r="T65">
-        <v>-0.04564968152866242</v>
+        <v>-0.04564331210191083</v>
       </c>
       <c r="U65">
         <v>-0.3240869565217391</v>
@@ -4956,7 +4956,7 @@
         <v>2007</v>
       </c>
       <c r="D66">
-        <v>0.8076945759447967</v>
+        <v>0.8076350798363154</v>
       </c>
       <c r="E66">
         <v>0.1383928571428572</v>
@@ -4971,43 +4971,43 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0.003453125</v>
+        <v>0.003446428571428571</v>
       </c>
       <c r="J66">
-        <v>0.03714508928571428</v>
+        <v>0.03732589285714286</v>
       </c>
       <c r="K66">
-        <v>-0.3679421487603306</v>
+        <v>-0.3679214876033058</v>
       </c>
       <c r="L66">
-        <v>0.04474380165289256</v>
+        <v>0.04475206611570248</v>
       </c>
       <c r="M66">
-        <v>0.439752427184466</v>
+        <v>0.4397135922330097</v>
       </c>
       <c r="N66">
-        <v>0.02821844660194175</v>
+        <v>0.02860194174757281</v>
       </c>
       <c r="O66">
-        <v>0.417811475409836</v>
+        <v>0.4177786885245902</v>
       </c>
       <c r="P66">
-        <v>-0.04676229508196721</v>
+        <v>-0.04637704918032787</v>
       </c>
       <c r="Q66">
-        <v>0.4716190476190476</v>
+        <v>0.4715714285714286</v>
       </c>
       <c r="R66">
-        <v>0.1371190476190476</v>
+        <v>0.1375</v>
       </c>
       <c r="S66">
-        <v>-0.3861489361702128</v>
+        <v>-0.3861276595744681</v>
       </c>
       <c r="T66">
-        <v>-0.02829255319148936</v>
+        <v>-0.02828191489361702</v>
       </c>
       <c r="U66">
-        <v>-0.3045555555555556</v>
+        <v>-0.3045370370370371</v>
       </c>
       <c r="V66">
         <v>0.2990185185185185</v>
@@ -5026,7 +5026,7 @@
         <v>2009</v>
       </c>
       <c r="D67">
-        <v>0.8046593322113487</v>
+        <v>0.8045911404766357</v>
       </c>
       <c r="E67">
         <v>0.1681614349775785</v>
@@ -5041,43 +5041,43 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>-0.01796636771300448</v>
+        <v>-0.01797533632286995</v>
       </c>
       <c r="J67">
-        <v>0.03574215246636771</v>
+        <v>0.03599551569506727</v>
       </c>
       <c r="K67">
-        <v>-0.3481292775665399</v>
+        <v>-0.3481102661596958</v>
       </c>
       <c r="L67">
-        <v>0.0391254752851711</v>
+        <v>0.03914068441064639</v>
       </c>
       <c r="M67">
-        <v>0.4565300546448087</v>
+        <v>0.4564808743169399</v>
       </c>
       <c r="N67">
-        <v>0.03087978142076503</v>
+        <v>0.03147540983606557</v>
       </c>
       <c r="O67">
-        <v>0.4383809523809524</v>
+        <v>0.4383428571428571</v>
       </c>
       <c r="P67">
-        <v>-0.03743809523809524</v>
+        <v>-0.0368</v>
       </c>
       <c r="Q67">
-        <v>0.4809615384615384</v>
+        <v>0.4808974358974359</v>
       </c>
       <c r="R67">
-        <v>0.1228461538461538</v>
+        <v>0.1233846153846154</v>
       </c>
       <c r="S67">
-        <v>-0.3633756097560976</v>
+        <v>-0.3633560975609756</v>
       </c>
       <c r="T67">
-        <v>-0.02396585365853659</v>
+        <v>-0.02394634146341464</v>
       </c>
       <c r="U67">
-        <v>-0.2942413793103448</v>
+        <v>-0.2942241379310345</v>
       </c>
       <c r="V67">
         <v>0.2621206896551724</v>
@@ -5096,7 +5096,7 @@
         <v>2011</v>
       </c>
       <c r="D68">
-        <v>0.8613758163265306</v>
+        <v>0.8613059183673469</v>
       </c>
       <c r="E68">
         <v>0.0898876404494382</v>
@@ -5111,43 +5111,43 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0.08110561797752809</v>
+        <v>0.08109213483146067</v>
       </c>
       <c r="J68">
-        <v>0.004530337078651686</v>
+        <v>0.004707865168539326</v>
       </c>
       <c r="K68">
-        <v>-0.393135</v>
+        <v>-0.39311</v>
       </c>
       <c r="L68">
-        <v>-0.03266</v>
+        <v>-0.032635</v>
       </c>
       <c r="M68">
-        <v>0.4682408163265306</v>
+        <v>0.4681959183673469</v>
       </c>
       <c r="N68">
-        <v>0.03488979591836735</v>
+        <v>0.03519183673469388</v>
       </c>
       <c r="O68">
-        <v>0.4447248322147651</v>
+        <v>0.4447046979865772</v>
       </c>
       <c r="P68">
-        <v>-0.0144496644295302</v>
+        <v>-0.01435570469798658</v>
       </c>
       <c r="Q68">
-        <v>0.5047395833333334</v>
+        <v>0.50465625</v>
       </c>
       <c r="R68">
-        <v>0.11146875</v>
+        <v>0.11209375</v>
       </c>
       <c r="S68">
-        <v>-0.4006234567901235</v>
+        <v>-0.4005987654320988</v>
       </c>
       <c r="T68">
-        <v>-0.08935185185185185</v>
+        <v>-0.08932098765432099</v>
       </c>
       <c r="U68">
-        <v>-0.3612105263157895</v>
+        <v>-0.3611842105263158</v>
       </c>
       <c r="V68">
         <v>0.2090263157894737</v>
@@ -5166,7 +5166,7 @@
         <v>2013</v>
       </c>
       <c r="D69">
-        <v>0.8676078431372549</v>
+        <v>0.8674889705882354</v>
       </c>
       <c r="E69">
         <v>0.09234234234234234</v>
@@ -5181,46 +5181,46 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0.08461936936936937</v>
+        <v>0.08456981981981981</v>
       </c>
       <c r="J69">
-        <v>-0.008355855855855856</v>
+        <v>-0.008148648648648648</v>
       </c>
       <c r="K69">
-        <v>-0.3843578431372549</v>
+        <v>-0.384343137254902</v>
       </c>
       <c r="L69">
-        <v>-0.07079411764705883</v>
+        <v>-0.07076470588235294</v>
       </c>
       <c r="M69">
-        <v>0.48325</v>
+        <v>0.4831458333333333</v>
       </c>
       <c r="N69">
-        <v>0.04471666666666667</v>
+        <v>0.045075</v>
       </c>
       <c r="O69">
-        <v>0.4524179104477612</v>
+        <v>0.4523880597014925</v>
       </c>
       <c r="P69">
-        <v>0.01387313432835821</v>
+        <v>0.01404477611940299</v>
       </c>
       <c r="Q69">
-        <v>0.5222264150943396</v>
+        <v>0.5220283018867925</v>
       </c>
       <c r="R69">
-        <v>0.08370754716981132</v>
+        <v>0.08430188679245283</v>
       </c>
       <c r="S69">
         <v>-0.3857987804878049</v>
       </c>
       <c r="T69">
-        <v>-0.1156219512195122</v>
+        <v>-0.1155975609756098</v>
       </c>
       <c r="U69">
-        <v>-0.37845</v>
+        <v>-0.378375</v>
       </c>
       <c r="V69">
-        <v>0.113</v>
+        <v>0.11305</v>
       </c>
     </row>
     <row r="70">
@@ -5236,61 +5236,61 @@
         <v>2015</v>
       </c>
       <c r="D70">
-        <v>0.876229209477878</v>
+        <v>0.8761299014468442</v>
       </c>
       <c r="E70">
-        <v>0.08390022675736962</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="F70">
         <v>0.09473684210526316</v>
       </c>
       <c r="G70">
-        <v>0.07569721115537849</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0.1036575963718821</v>
+        <v>0.1036326530612245</v>
       </c>
       <c r="J70">
-        <v>-0.009029478458049887</v>
+        <v>-0.008961451247165532</v>
       </c>
       <c r="K70">
-        <v>-0.3950578947368421</v>
+        <v>-0.3950263157894737</v>
       </c>
       <c r="L70">
-        <v>-0.07778421052631579</v>
+        <v>-0.07786842105263157</v>
       </c>
       <c r="M70">
-        <v>0.4811713147410359</v>
+        <v>0.4811035856573705</v>
       </c>
       <c r="N70">
-        <v>0.04301593625498008</v>
+        <v>0.043199203187251</v>
       </c>
       <c r="O70">
-        <v>0.4463241379310345</v>
+        <v>0.4463448275862069</v>
       </c>
       <c r="P70">
-        <v>0.01179310344827586</v>
+        <v>0.01175862068965517</v>
       </c>
       <c r="Q70">
-        <v>0.5288396226415094</v>
+        <v>0.5286509433962264</v>
       </c>
       <c r="R70">
-        <v>0.08572641509433962</v>
+        <v>0.08620754716981133</v>
       </c>
       <c r="S70">
-        <v>-0.3949285714285714</v>
+        <v>-0.3949090909090909</v>
       </c>
       <c r="T70">
-        <v>-0.1197012987012987</v>
+        <v>-0.1198246753246753</v>
       </c>
       <c r="U70">
-        <v>-0.3956111111111111</v>
+        <v>-0.3955277777777778</v>
       </c>
       <c r="V70">
-        <v>0.1015277777777778</v>
+        <v>0.1016111111111111</v>
       </c>
     </row>
     <row r="71">
@@ -5306,61 +5306,61 @@
         <v>2017</v>
       </c>
       <c r="D71">
-        <v>0.881185</v>
+        <v>0.8809640000000001</v>
       </c>
       <c r="E71">
-        <v>0.08222222222222222</v>
+        <v>0.08</v>
       </c>
       <c r="F71">
         <v>0.105</v>
       </c>
       <c r="G71">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0.09866222222222222</v>
+        <v>0.09864444444444444</v>
       </c>
       <c r="J71">
-        <v>-0.002348888888888888</v>
+        <v>-0.00243111111111111</v>
       </c>
       <c r="K71">
-        <v>-0.390885</v>
+        <v>-0.39078</v>
       </c>
       <c r="L71">
-        <v>-0.05532</v>
+        <v>-0.055515</v>
       </c>
       <c r="M71">
-        <v>0.4903</v>
+        <v>0.490184</v>
       </c>
       <c r="N71">
-        <v>0.040028</v>
+        <v>0.040036</v>
       </c>
       <c r="O71">
-        <v>0.4477083333333333</v>
+        <v>0.4475763888888889</v>
       </c>
       <c r="P71">
-        <v>0.03702083333333334</v>
+        <v>0.03698611111111112</v>
       </c>
       <c r="Q71">
-        <v>0.5481603773584905</v>
+        <v>0.5480660377358491</v>
       </c>
       <c r="R71">
-        <v>0.04411320754716981</v>
+        <v>0.04417924528301887</v>
       </c>
       <c r="S71">
-        <v>-0.3912469135802469</v>
+        <v>-0.3911604938271605</v>
       </c>
       <c r="T71">
-        <v>-0.09537037037037037</v>
+        <v>-0.09566049382716049</v>
       </c>
       <c r="U71">
-        <v>-0.3893421052631579</v>
+        <v>-0.3891578947368421</v>
       </c>
       <c r="V71">
-        <v>0.115421052631579</v>
+        <v>0.1156315789473684</v>
       </c>
     </row>
     <row r="72">
@@ -5376,61 +5376,61 @@
         <v>2019</v>
       </c>
       <c r="D72">
-        <v>0.8725610498601284</v>
+        <v>0.8726803110087213</v>
       </c>
       <c r="E72">
-        <v>0.1015801354401806</v>
+        <v>0.09480812641083522</v>
       </c>
       <c r="F72">
-        <v>0.1610169491525424</v>
+        <v>0.1567796610169492</v>
       </c>
       <c r="G72">
-        <v>0.03398058252427184</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0.03754853273137698</v>
+        <v>0.03748984198645598</v>
       </c>
       <c r="J72">
-        <v>0.02869074492099323</v>
+        <v>0.02810609480812641</v>
       </c>
       <c r="K72">
-        <v>-0.3698474576271186</v>
+        <v>-0.3699618644067796</v>
       </c>
       <c r="L72">
-        <v>0.005724576271186441</v>
+        <v>0.005826271186440678</v>
       </c>
       <c r="M72">
-        <v>0.5027135922330097</v>
+        <v>0.5027184466019418</v>
       </c>
       <c r="N72">
-        <v>0.05966990291262136</v>
+        <v>0.05829611650485437</v>
       </c>
       <c r="O72">
-        <v>0.4612389380530973</v>
+        <v>0.4612035398230088</v>
       </c>
       <c r="P72">
-        <v>0.0734070796460177</v>
+        <v>0.07128318584070796</v>
       </c>
       <c r="Q72">
-        <v>0.5531075268817204</v>
+        <v>0.5531612903225807</v>
       </c>
       <c r="R72">
-        <v>0.04297849462365592</v>
+        <v>0.04251612903225806</v>
       </c>
       <c r="S72">
-        <v>-0.3675</v>
+        <v>-0.367595744680851</v>
       </c>
       <c r="T72">
-        <v>-0.03832978723404255</v>
+        <v>-0.03824468085106383</v>
       </c>
       <c r="U72">
-        <v>-0.3790416666666667</v>
+        <v>-0.3792291666666667</v>
       </c>
       <c r="V72">
-        <v>0.1782708333333333</v>
+        <v>0.1784375</v>
       </c>
     </row>
     <row r="73">
@@ -5446,61 +5446,61 @@
         <v>2021</v>
       </c>
       <c r="D73">
-        <v>0.8871290388968924</v>
+        <v>0.886600555669891</v>
       </c>
       <c r="E73">
-        <v>0.08163265306122448</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="F73">
-        <v>0.1283185840707965</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="G73">
-        <v>0.03255813953488372</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>0.05102267573696145</v>
+        <v>0.05134467120181406</v>
       </c>
       <c r="J73">
-        <v>0.02320181405895692</v>
+        <v>0.02164852607709751</v>
       </c>
       <c r="K73">
-        <v>-0.3814778761061947</v>
+        <v>-0.3808982300884956</v>
       </c>
       <c r="L73">
-        <v>-0.02958849557522124</v>
+        <v>-0.02724336283185841</v>
       </c>
       <c r="M73">
-        <v>0.5056511627906977</v>
+        <v>0.5057023255813954</v>
       </c>
       <c r="N73">
-        <v>0.07869302325581395</v>
+        <v>0.07304186046511628</v>
       </c>
       <c r="O73">
-        <v>0.4643140495867769</v>
+        <v>0.4642809917355372</v>
       </c>
       <c r="P73">
-        <v>0.1014545454545455</v>
+        <v>0.0956198347107438</v>
       </c>
       <c r="Q73">
-        <v>0.5588617021276596</v>
+        <v>0.5590212765957446</v>
       </c>
       <c r="R73">
-        <v>0.04939361702127659</v>
+        <v>0.04397872340425532</v>
       </c>
       <c r="S73">
-        <v>-0.3798926553672317</v>
+        <v>-0.3794124293785311</v>
       </c>
       <c r="T73">
-        <v>-0.08299435028248588</v>
+        <v>-0.08196045197740114</v>
       </c>
       <c r="U73">
-        <v>-0.3872040816326531</v>
+        <v>-0.386265306122449</v>
       </c>
       <c r="V73">
-        <v>0.1633265306122449</v>
+        <v>0.1704081632653061</v>
       </c>
     </row>
     <row r="74">
@@ -8978,7 +8978,7 @@
         <v>1981</v>
       </c>
       <c r="D125">
-        <v>0.6096376811594203</v>
+        <v>0.6096561996779388</v>
       </c>
       <c r="E125">
         <v>0.3465346534653465</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0.03051485148514852</v>
+        <v>0.03052475247524753</v>
       </c>
       <c r="J125">
         <v>-0.04130693069306931</v>
@@ -9005,13 +9005,13 @@
         <v>0.2607391304347826</v>
       </c>
       <c r="M125">
-        <v>0.3103333333333333</v>
+        <v>0.3103518518518519</v>
       </c>
       <c r="N125">
         <v>-0.3172962962962963</v>
       </c>
       <c r="O125">
-        <v>0.2871590909090909</v>
+        <v>0.2871818181818182</v>
       </c>
       <c r="P125">
         <v>-0.4332727272727273</v>
@@ -9048,7 +9048,7 @@
         <v>1983</v>
       </c>
       <c r="D126">
-        <v>0.608489723320158</v>
+        <v>0.60850790513834</v>
       </c>
       <c r="E126">
         <v>0.3366336633663367</v>
@@ -9063,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0.03002970297029703</v>
+        <v>0.03003960396039604</v>
       </c>
       <c r="J126">
         <v>-0.0529009900990099</v>
@@ -9075,13 +9075,13 @@
         <v>0.2466521739130435</v>
       </c>
       <c r="M126">
-        <v>0.3071636363636364</v>
+        <v>0.3071818181818182</v>
       </c>
       <c r="N126">
         <v>-0.3034363636363636</v>
       </c>
       <c r="O126">
-        <v>0.2842727272727273</v>
+        <v>0.2842954545454545</v>
       </c>
       <c r="P126">
         <v>-0.4239772727272727</v>
@@ -9118,7 +9118,7 @@
         <v>1985</v>
       </c>
       <c r="D127">
-        <v>0.6195772261623325</v>
+        <v>0.6195957446808511</v>
       </c>
       <c r="E127">
         <v>0.3168316831683168</v>
@@ -9133,10 +9133,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>0.02566336633663367</v>
+        <v>0.02567326732673268</v>
       </c>
       <c r="J127">
-        <v>-0.05196039603960396</v>
+        <v>-0.05200990099009901</v>
       </c>
       <c r="K127">
         <v>-0.305595744680851</v>
@@ -9145,13 +9145,13 @@
         <v>0.2152553191489362</v>
       </c>
       <c r="M127">
-        <v>0.3139814814814815</v>
+        <v>0.314</v>
       </c>
       <c r="N127">
-        <v>-0.284537037037037</v>
+        <v>-0.2846296296296296</v>
       </c>
       <c r="O127">
-        <v>0.2875365853658536</v>
+        <v>0.2875609756097561</v>
       </c>
       <c r="P127">
         <v>-0.4228536585365854</v>
@@ -9160,7 +9160,7 @@
         <v>0.3973846153846154</v>
       </c>
       <c r="R127">
-        <v>0.1516923076923077</v>
+        <v>0.1513076923076923</v>
       </c>
       <c r="S127">
         <v>-0.3403428571428572</v>
@@ -9188,7 +9188,7 @@
         <v>1987</v>
       </c>
       <c r="D128">
-        <v>0.608211462450593</v>
+        <v>0.6082332015810277</v>
       </c>
       <c r="E128">
         <v>0.3069306930693069</v>
@@ -9203,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>-0.01735643564356435</v>
+        <v>-0.01734653465346534</v>
       </c>
       <c r="J128">
-        <v>-0.04310891089108911</v>
+        <v>-0.04315841584158416</v>
       </c>
       <c r="K128">
         <v>-0.2943636363636364</v>
@@ -9215,13 +9215,13 @@
         <v>0.2002363636363636</v>
       </c>
       <c r="M128">
-        <v>0.3138478260869565</v>
+        <v>0.3138695652173913</v>
       </c>
       <c r="N128">
-        <v>-0.3340652173913043</v>
+        <v>-0.3341739130434783</v>
       </c>
       <c r="O128">
-        <v>0.2928421052631579</v>
+        <v>0.2928684210526316</v>
       </c>
       <c r="P128">
         <v>-0.4303157894736842</v>
@@ -9230,7 +9230,7 @@
         <v>0.413625</v>
       </c>
       <c r="R128">
-        <v>0.123125</v>
+        <v>0.1225</v>
       </c>
       <c r="S128">
         <v>-0.3344615384615385</v>
@@ -9258,7 +9258,7 @@
         <v>1989</v>
       </c>
       <c r="D129">
-        <v>0.6162329192546584</v>
+        <v>0.6162546583850932</v>
       </c>
       <c r="E129">
         <v>0.2941176470588235</v>
@@ -9273,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>-0.01551960784313725</v>
+        <v>-0.01550980392156863</v>
       </c>
       <c r="J129">
-        <v>-0.06826470588235295</v>
+        <v>-0.06831372549019608</v>
       </c>
       <c r="K129">
         <v>-0.2934285714285714</v>
@@ -9285,13 +9285,13 @@
         <v>0.12325</v>
       </c>
       <c r="M129">
-        <v>0.322804347826087</v>
+        <v>0.3228260869565218</v>
       </c>
       <c r="N129">
-        <v>-0.3014130434782609</v>
+        <v>-0.3015217391304348</v>
       </c>
       <c r="O129">
-        <v>0.2958648648648649</v>
+        <v>0.2958918918918919</v>
       </c>
       <c r="P129">
         <v>-0.396945945945946</v>
@@ -9300,7 +9300,7 @@
         <v>0.4335555555555556</v>
       </c>
       <c r="R129">
-        <v>0.09133333333333334</v>
+        <v>0.09077777777777778</v>
       </c>
       <c r="S129">
         <v>-0.326</v>
@@ -9328,7 +9328,7 @@
         <v>1991</v>
       </c>
       <c r="D130">
-        <v>0.6187633228840126</v>
+        <v>0.6187860501567398</v>
       </c>
       <c r="E130">
         <v>0.2941176470588235</v>
@@ -9343,10 +9343,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>-0.03225490196078431</v>
+        <v>-0.03224509803921569</v>
       </c>
       <c r="J130">
-        <v>-0.07181372549019609</v>
+        <v>-0.07186274509803922</v>
       </c>
       <c r="K130">
         <v>-0.2991724137931034</v>
@@ -9355,13 +9355,13 @@
         <v>0.106</v>
       </c>
       <c r="M130">
-        <v>0.3195909090909091</v>
+        <v>0.3196136363636364</v>
       </c>
       <c r="N130">
-        <v>-0.3062045454545455</v>
+        <v>-0.3063181818181818</v>
       </c>
       <c r="O130">
-        <v>0.2902857142857143</v>
+        <v>0.2903142857142857</v>
       </c>
       <c r="P130">
         <v>-0.4084285714285714</v>
@@ -9370,7 +9370,7 @@
         <v>0.4335555555555556</v>
       </c>
       <c r="R130">
-        <v>0.09133333333333334</v>
+        <v>0.09077777777777778</v>
       </c>
       <c r="S130">
         <v>-0.3322325581395349</v>
@@ -9398,7 +9398,7 @@
         <v>1993</v>
       </c>
       <c r="D131">
-        <v>0.6336994152046784</v>
+        <v>0.6337438596491228</v>
       </c>
       <c r="E131">
         <v>0.2745098039215687</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>-0.01663725490196078</v>
+        <v>-0.01661764705882353</v>
       </c>
       <c r="J131">
-        <v>-0.07652941176470589</v>
+        <v>-0.07654901960784313</v>
       </c>
       <c r="K131">
         <v>-0.2962105263157895</v>
@@ -9425,22 +9425,22 @@
         <v>0.0742280701754386</v>
       </c>
       <c r="M131">
-        <v>0.3374888888888889</v>
+        <v>0.3375333333333334</v>
       </c>
       <c r="N131">
-        <v>-0.2674888888888889</v>
+        <v>-0.2675333333333333</v>
       </c>
       <c r="O131">
-        <v>0.28934375</v>
+        <v>0.289375</v>
       </c>
       <c r="P131">
         <v>-0.41915625</v>
       </c>
       <c r="Q131">
-        <v>0.456</v>
+        <v>0.4560769230769231</v>
       </c>
       <c r="R131">
-        <v>0.1058461538461539</v>
+        <v>0.1056923076923077</v>
       </c>
       <c r="S131">
         <v>-0.3272272727272727</v>
@@ -9468,7 +9468,7 @@
         <v>1995</v>
       </c>
       <c r="D132">
-        <v>0.652505303030303</v>
+        <v>0.6525598484848485</v>
       </c>
       <c r="E132">
         <v>0.2330097087378641</v>
@@ -9483,31 +9483,31 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0.04688349514563107</v>
+        <v>0.04691262135922331</v>
       </c>
       <c r="J132">
-        <v>-0.1198543689320388</v>
+        <v>-0.1198640776699029</v>
       </c>
       <c r="K132">
         <v>-0.3015416666666667</v>
       </c>
       <c r="L132">
-        <v>0.008479166666666666</v>
+        <v>0.008458333333333333</v>
       </c>
       <c r="M132">
-        <v>0.3509636363636364</v>
+        <v>0.3510181818181818</v>
       </c>
       <c r="N132">
         <v>-0.2318545454545455</v>
       </c>
       <c r="O132">
-        <v>0.3153414634146341</v>
+        <v>0.3153658536585366</v>
       </c>
       <c r="P132">
         <v>-0.3585853658536585</v>
       </c>
       <c r="Q132">
-        <v>0.4552857142857143</v>
+        <v>0.4554285714285715</v>
       </c>
       <c r="R132">
         <v>0.1392857142857143</v>
@@ -9516,7 +9516,7 @@
         <v>-0.3219473684210526</v>
       </c>
       <c r="T132">
-        <v>-0.1414210526315789</v>
+        <v>-0.1414473684210526</v>
       </c>
       <c r="U132">
         <v>-0.224</v>
@@ -9538,7 +9538,7 @@
         <v>1997</v>
       </c>
       <c r="D133">
-        <v>0.6839656565656567</v>
+        <v>0.684020202020202</v>
       </c>
       <c r="E133">
         <v>0.18</v>
@@ -9553,31 +9553,31 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0.06567000000000001</v>
+        <v>0.06570000000000001</v>
       </c>
       <c r="J133">
-        <v>-0.12009</v>
+        <v>-0.1201</v>
       </c>
       <c r="K133">
         <v>-0.3105111111111111</v>
       </c>
       <c r="L133">
-        <v>-0.04957777777777778</v>
+        <v>-0.0496</v>
       </c>
       <c r="M133">
-        <v>0.3734545454545455</v>
+        <v>0.3735090909090909</v>
       </c>
       <c r="N133">
         <v>-0.1777818181818182</v>
       </c>
       <c r="O133">
-        <v>0.3384102564102564</v>
+        <v>0.3384358974358974</v>
       </c>
       <c r="P133">
         <v>-0.3058974358974359</v>
       </c>
       <c r="Q133">
-        <v>0.458875</v>
+        <v>0.459</v>
       </c>
       <c r="R133">
         <v>0.1345</v>
@@ -9586,7 +9586,7 @@
         <v>-0.3260540540540541</v>
       </c>
       <c r="T133">
-        <v>-0.1525945945945946</v>
+        <v>-0.1526216216216216</v>
       </c>
       <c r="U133">
         <v>-0.238625</v>
@@ -9608,7 +9608,7 @@
         <v>1999</v>
       </c>
       <c r="D134">
-        <v>0.6583517080745342</v>
+        <v>0.6584052795031057</v>
       </c>
       <c r="E134">
         <v>0.2156862745098039</v>
@@ -9623,31 +9623,31 @@
         <v>0.06862745098039216</v>
       </c>
       <c r="I134">
-        <v>0.06657843137254903</v>
+        <v>0.0666078431372549</v>
       </c>
       <c r="J134">
-        <v>-0.1486372549019608</v>
+        <v>-0.1486764705882353</v>
       </c>
       <c r="K134">
         <v>-0.2948695652173913</v>
       </c>
       <c r="L134">
-        <v>-0.06295652173913044</v>
+        <v>-0.06302173913043478</v>
       </c>
       <c r="M134">
-        <v>0.3634821428571429</v>
+        <v>0.3635357142857143</v>
       </c>
       <c r="N134">
-        <v>-0.2190178571428572</v>
+        <v>-0.2190357142857143</v>
       </c>
       <c r="O134">
-        <v>0.330025</v>
+        <v>0.33005</v>
       </c>
       <c r="P134">
-        <v>-0.3467</v>
+        <v>-0.346725</v>
       </c>
       <c r="Q134">
-        <v>0.447125</v>
+        <v>0.44725</v>
       </c>
       <c r="R134">
         <v>0.1001875</v>
@@ -9656,7 +9656,7 @@
         <v>-0.3238648648648649</v>
       </c>
       <c r="T134">
-        <v>-0.1520810810810811</v>
+        <v>-0.1521621621621622</v>
       </c>
       <c r="U134">
         <v>-0.1756666666666667</v>
@@ -9678,7 +9678,7 @@
         <v>2001</v>
       </c>
       <c r="D135">
-        <v>0.6631400000000001</v>
+        <v>0.6632</v>
       </c>
       <c r="E135">
         <v>0.2178217821782178</v>
@@ -9693,31 +9693,31 @@
         <v>0.06</v>
       </c>
       <c r="I135">
-        <v>0.03370297029702971</v>
+        <v>0.03373267326732673</v>
       </c>
       <c r="J135">
-        <v>-0.1233861386138614</v>
+        <v>-0.1234356435643564</v>
       </c>
       <c r="K135">
         <v>-0.29476</v>
       </c>
       <c r="L135">
-        <v>-0.04162</v>
+        <v>-0.0417</v>
       </c>
       <c r="M135">
-        <v>0.36838</v>
+        <v>0.36844</v>
       </c>
       <c r="N135">
-        <v>-0.19556</v>
+        <v>-0.19558</v>
       </c>
       <c r="O135">
-        <v>0.3351142857142857</v>
+        <v>0.3351428571428571</v>
       </c>
       <c r="P135">
-        <v>-0.3329142857142857</v>
+        <v>-0.3329428571428572</v>
       </c>
       <c r="Q135">
-        <v>0.446</v>
+        <v>0.4461333333333333</v>
       </c>
       <c r="R135">
         <v>0.1249333333333333</v>
@@ -9726,7 +9726,7 @@
         <v>-0.3210731707317073</v>
       </c>
       <c r="T135">
-        <v>-0.1265609756097561</v>
+        <v>-0.1266585365853659</v>
       </c>
       <c r="U135">
         <v>-0.1748888888888889</v>
@@ -9748,7 +9748,7 @@
         <v>2003</v>
       </c>
       <c r="D136">
-        <v>0.6497438725490197</v>
+        <v>0.6497046568627451</v>
       </c>
       <c r="E136">
         <v>0.22</v>
@@ -9763,22 +9763,22 @@
         <v>0.0505050505050505</v>
       </c>
       <c r="I136">
-        <v>0.03954</v>
+        <v>0.03952</v>
       </c>
       <c r="J136">
-        <v>-0.12179</v>
+        <v>-0.12204</v>
       </c>
       <c r="K136">
         <v>-0.2919791666666667</v>
       </c>
       <c r="L136">
-        <v>-0.04099999999999999</v>
+        <v>-0.04108333333333333</v>
       </c>
       <c r="M136">
-        <v>0.3577647058823529</v>
+        <v>0.3577254901960784</v>
       </c>
       <c r="N136">
-        <v>-0.1883921568627451</v>
+        <v>-0.1888039215686275</v>
       </c>
       <c r="O136">
         <v>0.3305555555555555</v>
@@ -9787,16 +9787,16 @@
         <v>-0.2936388888888889</v>
       </c>
       <c r="Q136">
-        <v>0.4230666666666666</v>
+        <v>0.4229333333333333</v>
       </c>
       <c r="R136">
-        <v>0.06419999999999999</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="S136">
         <v>-0.3195384615384615</v>
       </c>
       <c r="T136">
-        <v>-0.1342820512820513</v>
+        <v>-0.1343846153846154</v>
       </c>
       <c r="U136">
         <v>-0.1725555555555555</v>
@@ -9836,37 +9836,37 @@
         <v>0.06592079207920792</v>
       </c>
       <c r="J137">
-        <v>-0.1398118811881188</v>
+        <v>-0.139980198019802</v>
       </c>
       <c r="K137">
         <v>-0.3078444444444444</v>
       </c>
       <c r="L137">
-        <v>-0.09875555555555555</v>
+        <v>-0.09884444444444444</v>
       </c>
       <c r="M137">
         <v>0.3779636363636364</v>
       </c>
       <c r="N137">
-        <v>-0.1649818181818182</v>
+        <v>-0.1652181818181818</v>
       </c>
       <c r="O137">
-        <v>0.3374857142857143</v>
+        <v>0.3375428571428571</v>
       </c>
       <c r="P137">
-        <v>-0.2774857142857143</v>
+        <v>-0.2773142857142857</v>
       </c>
       <c r="Q137">
-        <v>0.4488</v>
+        <v>0.4487</v>
       </c>
       <c r="R137">
-        <v>0.0319</v>
+        <v>0.03095</v>
       </c>
       <c r="S137">
         <v>-0.3193170731707317</v>
       </c>
       <c r="T137">
-        <v>-0.1430731707317073</v>
+        <v>-0.1431707317073171</v>
       </c>
       <c r="U137">
         <v>-0.19025</v>
@@ -9888,7 +9888,7 @@
         <v>2007</v>
       </c>
       <c r="D138">
-        <v>0.6871486274509804</v>
+        <v>0.6871090196078431</v>
       </c>
       <c r="E138">
         <v>0.2058823529411765</v>
@@ -9903,40 +9903,40 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0.0456764705882353</v>
+        <v>0.04566666666666667</v>
       </c>
       <c r="J138">
-        <v>-0.1163235294117647</v>
+        <v>-0.1165098039215686</v>
       </c>
       <c r="K138">
-        <v>-0.29558</v>
+        <v>-0.29556</v>
       </c>
       <c r="L138">
-        <v>-0.08495999999999999</v>
+        <v>-0.08499999999999999</v>
       </c>
       <c r="M138">
-        <v>0.3915686274509804</v>
+        <v>0.3915490196078432</v>
       </c>
       <c r="N138">
-        <v>-0.1414901960784314</v>
+        <v>-0.141921568627451</v>
       </c>
       <c r="O138">
-        <v>0.3556451612903226</v>
+        <v>0.3556774193548387</v>
       </c>
       <c r="P138">
-        <v>-0.2666774193548387</v>
+        <v>-0.266741935483871</v>
       </c>
       <c r="Q138">
-        <v>0.44725</v>
+        <v>0.44715</v>
       </c>
       <c r="R138">
-        <v>0.05255</v>
+        <v>0.05155</v>
       </c>
       <c r="S138">
-        <v>-0.3077555555555556</v>
+        <v>-0.3077333333333334</v>
       </c>
       <c r="T138">
-        <v>-0.1265111111111111</v>
+        <v>-0.1265555555555556</v>
       </c>
       <c r="U138">
         <v>-0.186</v>
@@ -9958,7 +9958,7 @@
         <v>2009</v>
       </c>
       <c r="D139">
-        <v>0.7060833333333334</v>
+        <v>0.7058939393939394</v>
       </c>
       <c r="E139">
         <v>0.2342342342342342</v>
@@ -9973,46 +9973,46 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>-0.03113513513513513</v>
+        <v>-0.03118918918918919</v>
       </c>
       <c r="J139">
-        <v>-0.09287387387387387</v>
+        <v>-0.09316216216216217</v>
       </c>
       <c r="K139">
-        <v>-0.3090151515151515</v>
+        <v>-0.3089848484848485</v>
       </c>
       <c r="L139">
-        <v>-0.07195454545454545</v>
+        <v>-0.07193939393939394</v>
       </c>
       <c r="M139">
-        <v>0.3970681818181818</v>
+        <v>0.3969090909090909</v>
       </c>
       <c r="N139">
-        <v>-0.11725</v>
+        <v>-0.1181136363636364</v>
       </c>
       <c r="O139">
-        <v>0.3538846153846154</v>
+        <v>0.3536923076923077</v>
       </c>
       <c r="P139">
-        <v>-0.2347692307692308</v>
+        <v>-0.2354615384615385</v>
       </c>
       <c r="Q139">
-        <v>0.4594444444444444</v>
+        <v>0.4593333333333333</v>
       </c>
       <c r="R139">
-        <v>0.0525</v>
+        <v>0.05138888888888889</v>
       </c>
       <c r="S139">
-        <v>-0.3230508474576271</v>
+        <v>-0.3230169491525424</v>
       </c>
       <c r="T139">
-        <v>-0.1090847457627119</v>
+        <v>-0.1090508474576271</v>
       </c>
       <c r="U139">
         <v>-0.1907142857142857</v>
       </c>
       <c r="V139">
-        <v>0.241</v>
+        <v>0.2408571428571429</v>
       </c>
     </row>
     <row r="140">
@@ -10028,7 +10028,7 @@
         <v>2011</v>
       </c>
       <c r="D140">
-        <v>0.7432955974842768</v>
+        <v>0.7433223270440252</v>
       </c>
       <c r="E140">
         <v>0.2058823529411765</v>
@@ -10043,46 +10043,46 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <v>0.04655882352941176</v>
+        <v>0.04661764705882353</v>
       </c>
       <c r="J140">
-        <v>-0.0815</v>
+        <v>-0.08142156862745098</v>
       </c>
       <c r="K140">
-        <v>-0.3009622641509434</v>
+        <v>-0.3009056603773585</v>
       </c>
       <c r="L140">
-        <v>-0.07115094339622641</v>
+        <v>-0.07113207547169811</v>
       </c>
       <c r="M140">
-        <v>0.4423333333333334</v>
+        <v>0.4424166666666667</v>
       </c>
       <c r="N140">
-        <v>-0.08627083333333334</v>
+        <v>-0.08622916666666666</v>
       </c>
       <c r="O140">
-        <v>0.4085</v>
+        <v>0.4085666666666667</v>
       </c>
       <c r="P140">
-        <v>-0.1688666666666667</v>
+        <v>-0.1686666666666667</v>
       </c>
       <c r="Q140">
-        <v>0.4987222222222222</v>
+        <v>0.4988333333333334</v>
       </c>
       <c r="R140">
-        <v>0.05138888888888889</v>
+        <v>0.05116666666666667</v>
       </c>
       <c r="S140">
-        <v>-0.3145106382978723</v>
+        <v>-0.3144468085106383</v>
       </c>
       <c r="T140">
-        <v>-0.1123404255319149</v>
+        <v>-0.1122978723404255</v>
       </c>
       <c r="U140">
         <v>-0.1948333333333334</v>
       </c>
       <c r="V140">
-        <v>0.2515</v>
+        <v>0.2513333333333334</v>
       </c>
     </row>
     <row r="141">
@@ -10098,7 +10098,7 @@
         <v>2013</v>
       </c>
       <c r="D141">
-        <v>0.7967036613272311</v>
+        <v>0.7968325705568269</v>
       </c>
       <c r="E141">
         <v>0.2</v>
@@ -10113,46 +10113,46 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0.02126666666666667</v>
+        <v>0.02147619047619048</v>
       </c>
       <c r="J141">
-        <v>-0.06767619047619047</v>
+        <v>-0.06757142857142857</v>
       </c>
       <c r="K141">
-        <v>-0.3274210526315789</v>
+        <v>-0.3272456140350877</v>
       </c>
       <c r="L141">
-        <v>-0.07894736842105263</v>
+        <v>-0.07905263157894736</v>
       </c>
       <c r="M141">
-        <v>0.4692826086956522</v>
+        <v>0.4695869565217392</v>
       </c>
       <c r="N141">
-        <v>-0.04323913043478261</v>
+        <v>-0.043</v>
       </c>
       <c r="O141">
-        <v>0.4356785714285714</v>
+        <v>0.4359285714285714</v>
       </c>
       <c r="P141">
-        <v>-0.09807142857142857</v>
+        <v>-0.09803571428571428</v>
       </c>
       <c r="Q141">
-        <v>0.5215555555555556</v>
+        <v>0.5219444444444444</v>
       </c>
       <c r="R141">
-        <v>0.04205555555555555</v>
+        <v>0.04261111111111111</v>
       </c>
       <c r="S141">
-        <v>-0.3415490196078431</v>
+        <v>-0.3413529411764706</v>
       </c>
       <c r="T141">
-        <v>-0.1162941176470588</v>
+        <v>-0.1163725490196078</v>
       </c>
       <c r="U141">
         <v>-0.2073333333333333</v>
       </c>
       <c r="V141">
-        <v>0.2385</v>
+        <v>0.2381666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -10168,7 +10168,7 @@
         <v>2015</v>
       </c>
       <c r="D142">
-        <v>0.8128922558922559</v>
+        <v>0.8126835016835017</v>
       </c>
       <c r="E142">
         <v>0.16</v>
@@ -10183,46 +10183,46 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0.10393</v>
+        <v>0.10402</v>
       </c>
       <c r="J142">
-        <v>-0.09238</v>
+        <v>-0.09258</v>
       </c>
       <c r="K142">
-        <v>-0.3348181818181818</v>
+        <v>-0.3345909090909091</v>
       </c>
       <c r="L142">
-        <v>-0.1271818181818182</v>
+        <v>-0.1273181818181818</v>
       </c>
       <c r="M142">
-        <v>0.4780740740740741</v>
+        <v>0.4780925925925926</v>
       </c>
       <c r="N142">
-        <v>-0.05601851851851852</v>
+        <v>-0.05638888888888889</v>
       </c>
       <c r="O142">
-        <v>0.4539393939393939</v>
+        <v>0.4538787878787879</v>
       </c>
       <c r="P142">
-        <v>-0.108969696969697</v>
+        <v>-0.1097878787878788</v>
       </c>
       <c r="Q142">
-        <v>0.516</v>
+        <v>0.5161428571428571</v>
       </c>
       <c r="R142">
-        <v>0.02719047619047619</v>
+        <v>0.02752380952380952</v>
       </c>
       <c r="S142">
-        <v>-0.3437073170731707</v>
+        <v>-0.3434634146341463</v>
       </c>
       <c r="T142">
-        <v>-0.1424146341463415</v>
+        <v>-0.1425121951219512</v>
       </c>
       <c r="U142">
         <v>-0.2133333333333333</v>
       </c>
       <c r="V142">
-        <v>0.081</v>
+        <v>0.08033333333333334</v>
       </c>
     </row>
     <row r="143">
@@ -10238,7 +10238,7 @@
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>0.8257962121212121</v>
+        <v>0.8255151515151515</v>
       </c>
       <c r="E143">
         <v>0.1714285714285714</v>
@@ -10253,37 +10253,37 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0.09584761904761904</v>
+        <v>0.09588571428571428</v>
       </c>
       <c r="J143">
-        <v>-0.07046666666666666</v>
+        <v>-0.07097142857142857</v>
       </c>
       <c r="K143">
-        <v>-0.3365416666666667</v>
+        <v>-0.3363333333333333</v>
       </c>
       <c r="L143">
-        <v>-0.1053125</v>
+        <v>-0.1053541666666667</v>
       </c>
       <c r="M143">
-        <v>0.4892545454545454</v>
+        <v>0.4891818181818182</v>
       </c>
       <c r="N143">
-        <v>-0.0314</v>
+        <v>-0.03243636363636364</v>
       </c>
       <c r="O143">
-        <v>0.46840625</v>
+        <v>0.46834375</v>
       </c>
       <c r="P143">
-        <v>-0.07953125</v>
+        <v>-0.080625</v>
       </c>
       <c r="Q143">
-        <v>0.5182608695652174</v>
+        <v>0.5181739130434783</v>
       </c>
       <c r="R143">
-        <v>0.03556521739130435</v>
+        <v>0.03460869565217391</v>
       </c>
       <c r="S143">
-        <v>-0.3505909090909091</v>
+        <v>-0.3503636363636364</v>
       </c>
       <c r="T143">
         <v>-0.1246590909090909</v>
@@ -10292,7 +10292,7 @@
         <v>-0.182</v>
       </c>
       <c r="V143">
-        <v>0.1075</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="144">
@@ -10308,7 +10308,7 @@
         <v>2019</v>
       </c>
       <c r="D144">
-        <v>0.8406634460547504</v>
+        <v>0.8399516908212561</v>
       </c>
       <c r="E144">
         <v>0.1568627450980392</v>
@@ -10323,46 +10323,46 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0.1025196078431373</v>
+        <v>0.102421568627451</v>
       </c>
       <c r="J144">
-        <v>-0.04461764705882353</v>
+        <v>-0.04436274509803922</v>
       </c>
       <c r="K144">
-        <v>-0.3424782608695652</v>
+        <v>-0.3421739130434783</v>
       </c>
       <c r="L144">
-        <v>-0.1147391304347826</v>
+        <v>-0.115304347826087</v>
       </c>
       <c r="M144">
-        <v>0.4981851851851852</v>
+        <v>0.4977777777777778</v>
       </c>
       <c r="N144">
-        <v>0.02488888888888889</v>
+        <v>0.02574074074074074</v>
       </c>
       <c r="O144">
-        <v>0.47353125</v>
+        <v>0.4733125</v>
       </c>
       <c r="P144">
-        <v>0.03209375</v>
+        <v>0.03171875</v>
       </c>
       <c r="Q144">
-        <v>0.5340454545454546</v>
+        <v>0.5333636363636364</v>
       </c>
       <c r="R144">
-        <v>0.0144090909090909</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="S144">
-        <v>-0.3539302325581395</v>
+        <v>-0.3536046511627907</v>
       </c>
       <c r="T144">
-        <v>-0.124906976744186</v>
+        <v>-0.1254651162790698</v>
       </c>
       <c r="U144">
         <v>-0.1783333333333333</v>
       </c>
       <c r="V144">
-        <v>0.031</v>
+        <v>0.03033333333333333</v>
       </c>
     </row>
     <row r="145">
@@ -10378,7 +10378,7 @@
         <v>2021</v>
       </c>
       <c r="D145">
-        <v>0.8729415766306523</v>
+        <v>0.8728711484593838</v>
       </c>
       <c r="E145">
         <v>0.1568627450980392</v>
@@ -10393,46 +10393,46 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0.08801960784313725</v>
+        <v>0.08776470588235294</v>
       </c>
       <c r="J145">
-        <v>-0.04805882352941176</v>
+        <v>-0.04865686274509804</v>
       </c>
       <c r="K145">
-        <v>-0.3485102040816326</v>
+        <v>-0.3487142857142857</v>
       </c>
       <c r="L145">
-        <v>-0.1041632653061225</v>
+        <v>-0.106530612244898</v>
       </c>
       <c r="M145">
-        <v>0.5244313725490196</v>
+        <v>0.5241568627450981</v>
       </c>
       <c r="N145">
-        <v>0.01605882352941176</v>
+        <v>0.01701960784313726</v>
       </c>
       <c r="O145">
-        <v>0.5008333333333334</v>
+        <v>0.5008666666666667</v>
       </c>
       <c r="P145">
-        <v>0.0256</v>
+        <v>0.0253</v>
       </c>
       <c r="Q145">
-        <v>0.5581428571428572</v>
+        <v>0.5574285714285714</v>
       </c>
       <c r="R145">
-        <v>0.002428571428571424</v>
+        <v>0.005190476190476187</v>
       </c>
       <c r="S145">
-        <v>-0.3508</v>
+        <v>-0.3509333333333333</v>
       </c>
       <c r="T145">
-        <v>-0.1319555555555555</v>
+        <v>-0.1326666666666667</v>
       </c>
       <c r="U145">
-        <v>-0.32275</v>
+        <v>-0.32375</v>
       </c>
       <c r="V145">
-        <v>0.2085</v>
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
